--- a/2.詳細設計/メッセージ表.xlsx
+++ b/2.詳細設計/メッセージ表.xlsx
@@ -8,21 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EDB747-1C60-4D35-BDF7-47C3B12AE613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD2C1B2-DA2E-4AD0-9B0D-A9E87DF39C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="330" windowWidth="16875" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
+    <workbookView xWindow="4140" yWindow="300" windowWidth="18555" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="3" r:id="rId1"/>
-    <sheet name="E.エラー表記" sheetId="2" r:id="rId2"/>
+    <sheet name="1.更新履歴" sheetId="4" r:id="rId2"/>
+    <sheet name="E.エラー表記" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.表紙'!$A$1:$AH$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">E.エラー表記!$A$3:$BA$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.更新履歴'!$A$4:$AX$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">E.エラー表記!$A$3:$BA$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>詳細設計</t>
   </si>
@@ -148,12 +146,58 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>作成・更新日</t>
+  </si>
+  <si>
+    <t>更新者</t>
+  </si>
+  <si>
+    <t>更新箇所</t>
+  </si>
+  <si>
+    <t>更新内容</t>
+  </si>
+  <si>
+    <t>山城</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ表（更新履歴）</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新履歴の新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +257,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +423,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +432,26 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,6 +499,47 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -456,66 +590,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0.表紙"/>
-      <sheetName val="1.更新履歴"/>
-      <sheetName val="2.画面レイアウト"/>
-      <sheetName val="3.入出力定義"/>
-      <sheetName val="4.処理詳細"/>
-      <sheetName val="5.SQL項目"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="27">
-          <cell r="O27" t="str">
-            <v>山城</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="O31" t="str">
-            <v>山城</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="0.表紙"/>
-      <sheetName val="1.共通処理"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="29">
-          <cell r="O29">
-            <v>44532</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="O33">
-            <v>44532</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,7 +892,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,28 +1169,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="6"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="14"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
@@ -1126,26 +1200,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="9"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -1155,26 +1229,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="9"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -1184,28 +1258,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -1215,26 +1289,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="9"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
@@ -1244,26 +1318,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="12"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -1477,28 +1551,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="13" t="s">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="15"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="23"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
@@ -1510,24 +1584,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="18"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
@@ -1539,28 +1613,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="13" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="15"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
@@ -1572,24 +1646,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="18"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="26"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
@@ -1601,28 +1675,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="13" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="15"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="23"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
@@ -1634,24 +1708,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
@@ -1663,28 +1737,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="19">
-        <v>44532</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="15"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="27">
+        <v>44533</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="23"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
@@ -1696,24 +1770,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="18"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
@@ -1725,28 +1799,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="13" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="15"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="23"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
@@ -1758,24 +1832,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="18"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
@@ -1787,28 +1861,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="19">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="27">
         <v>44532</v>
       </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="15"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="23"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
@@ -1820,24 +1894,24 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="18"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26"/>
       <c r="AA34" s="2"/>
     </row>
   </sheetData>
@@ -1864,153 +1938,1847 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352CA624-C7CD-450E-B138-24C1221BBAA0}">
+  <dimension ref="A1:AX40"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="2.25" style="4"/>
+    <col min="3" max="3" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="2.25" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="42" t="str">
+        <f>'0.表紙'!O25</f>
+        <v>メッセージ表</v>
+      </c>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="36" t="str">
+        <f>'0.表紙'!O31</f>
+        <v>山城</v>
+      </c>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="36" t="str">
+        <f>'0.表紙'!O27</f>
+        <v>山城</v>
+      </c>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+    </row>
+    <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="39">
+        <f>'0.表紙'!O33</f>
+        <v>44532</v>
+      </c>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="39">
+        <f>'0.表紙'!O29</f>
+        <v>44533</v>
+      </c>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+    </row>
+    <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+    </row>
+    <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+    </row>
+    <row r="5" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="30">
+        <v>1</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33">
+        <v>44533</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+    </row>
+    <row r="6" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
+    </row>
+    <row r="7" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
+    </row>
+    <row r="8" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="30">
+        <v>4</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
+    </row>
+    <row r="9" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="30">
+        <v>5</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
+    </row>
+    <row r="10" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="30">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+    </row>
+    <row r="11" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="30">
+        <v>7</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
+    </row>
+    <row r="12" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="30">
+        <v>8</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+    </row>
+    <row r="13" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="30">
+        <v>9</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+    </row>
+    <row r="14" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30">
+        <v>10</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+    </row>
+    <row r="15" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="30">
+        <v>11</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+    </row>
+    <row r="16" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="30">
+        <v>12</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+    </row>
+    <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="30">
+        <v>13</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
+    </row>
+    <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="30">
+        <v>14</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+    </row>
+    <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="30">
+        <v>15</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="32"/>
+    </row>
+    <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="30">
+        <v>16</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+    </row>
+    <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="30">
+        <v>17</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="11:27" x14ac:dyDescent="0.4">
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="157">
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AX5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AX6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AX7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AX8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AX9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="U20:AX20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AX21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AX18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AX19"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE34080-EDCC-4DF1-9BD0-EB0B8C692DDA}">
   <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="BB15" sqref="BB15"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22" t="str">
-        <f>'0.表紙'!H13</f>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45" t="str">
+        <f>'0.表紙'!O25</f>
         <v>メッセージ表</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="23" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="24" t="str">
-        <f>'[1]0.表紙'!O31</f>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="47" t="str">
+        <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="23" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="24" t="str">
-        <f>'[1]0.表紙'!O27</f>
-        <v>山城</v>
-      </c>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="23" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="25">
-        <f>'[2]0.表紙'!O33</f>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="48">
+        <f>'0.表紙'!O33</f>
         <v>44532</v>
       </c>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="23" t="s">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="25">
-        <f>'[2]0.表紙'!O29</f>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="48">
         <v>44532</v>
       </c>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -2070,686 +3838,686 @@
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
     <row r="5" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="27">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="27">
+      <c r="C6" s="50">
         <v>2</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="30" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="30"/>
-      <c r="AX6" s="30"/>
-      <c r="AY6" s="30"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="27">
+      <c r="C7" s="50">
         <v>3</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="30" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="30"/>
-      <c r="AO7" s="30"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="30"/>
-      <c r="AR7" s="30"/>
-      <c r="AS7" s="30"/>
-      <c r="AT7" s="30"/>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
-      <c r="AW7" s="30"/>
-      <c r="AX7" s="30"/>
-      <c r="AY7" s="30"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="27">
+      <c r="C8" s="50">
         <v>4</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="30"/>
-      <c r="AT8" s="30"/>
-      <c r="AU8" s="30"/>
-      <c r="AV8" s="30"/>
-      <c r="AW8" s="30"/>
-      <c r="AX8" s="30"/>
-      <c r="AY8" s="30"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="30"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
-      <c r="AU10" s="30"/>
-      <c r="AV10" s="30"/>
-      <c r="AW10" s="30"/>
-      <c r="AX10" s="30"/>
-      <c r="AY10" s="30"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="30"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>

--- a/2.詳細設計/メッセージ表.xlsx
+++ b/2.詳細設計/メッセージ表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD2C1B2-DA2E-4AD0-9B0D-A9E87DF39C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B30BD-5B30-45D4-98A6-B5367DE0C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="300" windowWidth="18555" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
+    <workbookView xWindow="3120" yWindow="780" windowWidth="16875" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>詳細設計</t>
   </si>
@@ -189,6 +189,40 @@
     </rPh>
     <rPh sb="5" eb="9">
       <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予期せぬエラーです、管理者に確認してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E:エラー表記</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規エラー：E04の追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -892,7 +926,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I29" sqref="I29:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1942,7 +1976,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:AD1"/>
+      <selection activeCell="U7" sqref="U7:AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2266,15 +2300,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="33">
+        <v>44533</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="31" t="s">
+        <v>34</v>
+      </c>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
@@ -2284,7 +2324,9 @@
       <c r="R6" s="31"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="32"/>
+      <c r="U6" s="32" t="s">
+        <v>35</v>
+      </c>
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
       <c r="X6" s="32"/>
@@ -3638,7 +3680,7 @@
   <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="N9" sqref="N9:AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4086,7 +4128,9 @@
         <v>4</v>
       </c>
       <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="51" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
@@ -4095,7 +4139,9 @@
       <c r="K8" s="51"/>
       <c r="L8" s="51"/>
       <c r="M8" s="51"/>
-      <c r="N8" s="53"/>
+      <c r="N8" s="53" t="s">
+        <v>33</v>
+      </c>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>

--- a/2.詳細設計/メッセージ表.xlsx
+++ b/2.詳細設計/メッセージ表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7B30BD-5B30-45D4-98A6-B5367DE0C09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F0DC4-87CF-41E1-A26C-8A552F2F8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="780" windowWidth="16875" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
+    <workbookView xWindow="-30" yWindow="75" windowWidth="16245" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>詳細設計</t>
   </si>
@@ -222,6 +222,53 @@
       <t>シンキ</t>
     </rPh>
     <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Passが一致しません。確認してください。</t>
+    <rPh sb="5" eb="7">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生年月日が現在よりも未来に設定されています。確認してください。</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミライ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規エラー：E05,E06の追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -486,6 +533,27 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,47 +581,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,27 +602,26 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +629,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +973,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:N30"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,28 +1250,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
@@ -1234,26 +1281,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="17"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="24"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -1263,26 +1310,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="17"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="24"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -1292,28 +1339,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="17"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -1323,26 +1370,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="17"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="24"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
@@ -1352,26 +1399,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="20"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="27"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -1585,28 +1632,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="21" t="s">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="23"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
@@ -1618,24 +1665,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="26"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="17"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
@@ -1647,28 +1694,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="21" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="23"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
@@ -1680,24 +1727,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="26"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="17"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
@@ -1709,28 +1756,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="21" t="s">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="23"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
@@ -1742,24 +1789,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="26"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="17"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
@@ -1771,28 +1818,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="27">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="18">
         <v>44533</v>
       </c>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="23"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
@@ -1804,24 +1851,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="26"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="17"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
@@ -1833,28 +1880,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="21" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="23"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
@@ -1866,24 +1913,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="26"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="17"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
@@ -1895,28 +1942,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="27">
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="18">
         <v>44532</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="23"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
@@ -1928,28 +1975,34 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="26"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="17"/>
       <c r="AA34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -1958,12 +2011,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,7 +2023,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AX7"/>
+      <selection activeCell="U8" sqref="U8:AX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1987,137 +2034,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="37" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="42" t="str">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="34" t="str">
         <f>'0.表紙'!O25</f>
         <v>メッセージ表</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="37" t="s">
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="36" t="str">
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="28" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="40" t="s">
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="36" t="str">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="28" t="str">
         <f>'0.表紙'!O27</f>
         <v>山城</v>
       </c>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="37" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="37" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="39">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="31">
         <f>'0.表紙'!O33</f>
         <v>44532</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="40" t="s">
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="39">
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="31">
         <f>'0.表紙'!O29</f>
         <v>44533</v>
       </c>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -2172,1009 +2219,1017 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
     </row>
     <row r="5" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="33">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38">
         <v>44533</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="31" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="32" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="32"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="40"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="40"/>
+      <c r="AV5" s="40"/>
+      <c r="AW5" s="40"/>
+      <c r="AX5" s="40"/>
     </row>
     <row r="6" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="33">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38">
         <v>44533</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="31" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="32" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
     </row>
     <row r="7" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30">
+      <c r="A7" s="37">
         <v>3</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38">
+        <v>44536</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
     </row>
     <row r="8" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="30">
+      <c r="A8" s="37">
         <v>4</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
     </row>
     <row r="9" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="30">
+      <c r="A9" s="37">
         <v>5</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="40"/>
+      <c r="AV9" s="40"/>
+      <c r="AW9" s="40"/>
+      <c r="AX9" s="40"/>
     </row>
     <row r="10" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30">
+      <c r="A10" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
     </row>
     <row r="11" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30">
+      <c r="A11" s="37">
         <v>7</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="32"/>
-      <c r="AX11" s="32"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
     </row>
     <row r="12" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30">
+      <c r="A12" s="37">
         <v>8</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="32"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
     </row>
     <row r="13" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30">
+      <c r="A13" s="37">
         <v>9</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="32"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
     </row>
     <row r="14" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30">
+      <c r="A14" s="37">
         <v>10</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="32"/>
-      <c r="AW14" s="32"/>
-      <c r="AX14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
     </row>
     <row r="15" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30">
+      <c r="A15" s="37">
         <v>11</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
     </row>
     <row r="16" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30">
+      <c r="A16" s="37">
         <v>12</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="32"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
     </row>
     <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30">
+      <c r="A17" s="37">
         <v>13</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="32"/>
-      <c r="AW17" s="32"/>
-      <c r="AX17" s="32"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
     </row>
     <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30">
+      <c r="A18" s="37">
         <v>14</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
+      <c r="AX18" s="40"/>
     </row>
     <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30">
+      <c r="A19" s="37">
         <v>15</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="32"/>
-      <c r="AW19" s="32"/>
-      <c r="AX19" s="32"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
     </row>
     <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30">
+      <c r="A20" s="37">
         <v>16</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="40"/>
     </row>
     <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30">
+      <c r="A21" s="37">
         <v>17</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="32"/>
-      <c r="AW21" s="32"/>
-      <c r="AX21" s="32"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -3187,13 +3242,13 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -3206,13 +3261,13 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -3225,13 +3280,13 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -3244,13 +3299,13 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -3263,13 +3318,13 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -3282,13 +3337,13 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -3301,13 +3356,13 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -3320,13 +3375,13 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -3339,13 +3394,13 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -3358,13 +3413,13 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -3377,13 +3432,13 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -3396,13 +3451,13 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -3415,13 +3470,13 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -3434,13 +3489,13 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -3453,13 +3508,13 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -3472,13 +3527,13 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -3491,13 +3546,13 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -3511,89 +3566,64 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AX4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AX5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AX6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AX7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AX8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AX9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AX10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AX11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AX12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AX13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AX14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AX15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AX16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
     <mergeCell ref="U20:AX20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:E21"/>
@@ -3610,64 +3640,89 @@
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:T19"/>
     <mergeCell ref="U19:AX19"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AX8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AX9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AX6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AX7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AX5"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AO1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3680,147 +3735,147 @@
   <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:AY9"/>
+      <selection activeCell="N14" sqref="N14:AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="45" t="str">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="53" t="str">
         <f>'0.表紙'!O25</f>
         <v>メッセージ表</v>
       </c>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="46" t="s">
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="47" t="str">
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="48" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="46" t="s">
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="47" t="s">
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="46" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="48">
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="51">
         <f>'0.表紙'!O33</f>
         <v>44532</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="46" t="s">
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="48">
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="51">
         <v>44532</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -3880,690 +3935,712 @@
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
     <row r="5" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="50">
+      <c r="C5" s="43">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="52"/>
-      <c r="AX5" s="52"/>
-      <c r="AY5" s="52"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="50">
+      <c r="C6" s="43">
         <v>2</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="53" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="50">
+      <c r="C7" s="43">
         <v>3</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="53" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="50">
+      <c r="C8" s="43">
         <v>4</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="53" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
+      <c r="C9" s="43">
+        <v>5</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
+      <c r="C10" s="43">
+        <v>6</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="45"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
+      <c r="C11" s="43">
+        <v>7</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
+      <c r="C12" s="43">
+        <v>8</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
+      <c r="C13" s="43">
+        <v>9</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
+      <c r="C14" s="43">
+        <v>10</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
-      <c r="AN15" s="53"/>
-      <c r="AO15" s="53"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="53"/>
-      <c r="AU15" s="53"/>
-      <c r="AV15" s="53"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="53"/>
+      <c r="C15" s="43">
+        <v>11</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
@@ -5394,42 +5471,11 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="N14:AY14"/>
-    <mergeCell ref="N15:AY15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="N12:AY12"/>
-    <mergeCell ref="N13:AY13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="N10:AY10"/>
-    <mergeCell ref="N11:AY11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="N8:AY8"/>
-    <mergeCell ref="N9:AY9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="N6:AY6"/>
-    <mergeCell ref="N7:AY7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="N4:AY4"/>
-    <mergeCell ref="N5:AY5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
     <mergeCell ref="AV1:BA1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AE2"/>
@@ -5438,11 +5484,42 @@
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:BA2"/>
     <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="N4:AY4"/>
+    <mergeCell ref="N5:AY5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="N6:AY6"/>
+    <mergeCell ref="N7:AY7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="N8:AY8"/>
+    <mergeCell ref="N9:AY9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="N10:AY10"/>
+    <mergeCell ref="N11:AY11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="N12:AY12"/>
+    <mergeCell ref="N13:AY13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="N14:AY14"/>
+    <mergeCell ref="N15:AY15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.詳細設計/メッセージ表.xlsx
+++ b/2.詳細設計/メッセージ表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F0DC4-87CF-41E1-A26C-8A552F2F8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C089597F-8292-4FD9-97DF-80E297C8CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="75" windowWidth="16245" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
+    <workbookView xWindow="90" yWindow="15" windowWidth="17325" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>詳細設計</t>
   </si>
@@ -269,6 +269,65 @@
       <t>シンキ</t>
     </rPh>
     <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一のIDが使用されています。変更してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別の人が更新作業を行いました。上記記述が最新のデータです。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規エラー：E08の追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -973,7 +1032,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+      <selection activeCell="O31" sqref="O31:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1827,7 +1886,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="14"/>
       <c r="O29" s="18">
-        <v>44533</v>
+        <v>44538</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -2023,7 +2082,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:AX8"/>
+      <selection activeCell="U7" sqref="U7:AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2158,7 +2217,7 @@
       <c r="AR2" s="32"/>
       <c r="AS2" s="31">
         <f>'0.表紙'!O29</f>
-        <v>44533</v>
+        <v>44538</v>
       </c>
       <c r="AT2" s="28"/>
       <c r="AU2" s="28"/>
@@ -2471,15 +2530,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="37"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="38">
+        <v>44538</v>
+      </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="39" t="s">
+        <v>13</v>
+      </c>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -2489,7 +2554,9 @@
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
+      <c r="U8" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="V8" s="40"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
@@ -3735,7 +3802,7 @@
   <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14:AY14"/>
+      <selection activeCell="N12" sqref="N12:AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4366,7 +4433,9 @@
         <v>7</v>
       </c>
       <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="E11" s="44" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -4375,7 +4444,9 @@
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
       <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
+      <c r="N11" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="O11" s="45"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="45"/>
@@ -4423,7 +4494,9 @@
         <v>8</v>
       </c>
       <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="E12" s="44" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -4432,7 +4505,9 @@
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="N12" s="45" t="s">
+        <v>44</v>
+      </c>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>

--- a/2.詳細設計/メッセージ表.xlsx
+++ b/2.詳細設計/メッセージ表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C089597F-8292-4FD9-97DF-80E297C8CC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94BB355-8BE1-420B-A0A1-D7FDBF7F2C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="15" windowWidth="17325" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
+    <workbookView xWindow="255" yWindow="180" windowWidth="19530" windowHeight="15420" xr2:uid="{CD53452A-83EF-429E-BE96-DC1322E62655}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>詳細設計</t>
   </si>
@@ -332,6 +332,36 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>E09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数選択しているか、選択できていません。確認してください。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規エラー：E09の追加</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -592,27 +622,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,6 +649,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -661,26 +711,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,30 +739,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,28 +1339,28 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="21"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="14"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
@@ -1340,26 +1370,26 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="24"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="17"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -1369,26 +1399,26 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="24"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -1398,28 +1428,28 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="24"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
@@ -1429,26 +1459,26 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="24"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
@@ -1458,26 +1488,26 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="27"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="20"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -1691,28 +1721,28 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="12" t="s">
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="14"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="23"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.15">
@@ -1724,24 +1754,24 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="17"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.15">
@@ -1753,28 +1783,28 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="12" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="14"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="23"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
@@ -1786,24 +1816,24 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="17"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="26"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
@@ -1815,28 +1845,28 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="12" t="s">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="14"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="23"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
@@ -1848,24 +1878,24 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="17"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="26"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
@@ -1877,28 +1907,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="18">
-        <v>44538</v>
-      </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="27">
+        <v>44539</v>
+      </c>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="23"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
@@ -1910,24 +1940,24 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="17"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="26"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
@@ -1939,28 +1969,28 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="12" t="s">
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="14"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="23"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
@@ -1972,24 +2002,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="17"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="26"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
@@ -2001,28 +2031,28 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="18">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="27">
         <v>44532</v>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="14"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="23"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
@@ -2034,34 +2064,28 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="17"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="26"/>
       <c r="AA34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -2070,6 +2094,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,7 +2112,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AX7"/>
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2093,137 +2123,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="29" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="34" t="str">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="42" t="str">
         <f>'0.表紙'!O25</f>
         <v>メッセージ表</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="29" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="28" t="str">
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="36" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="32" t="s">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="28" t="str">
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="36" t="str">
         <f>'0.表紙'!O27</f>
         <v>山城</v>
       </c>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="29" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="29" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="31">
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="39">
         <f>'0.表紙'!O33</f>
         <v>44532</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="32" t="s">
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="31">
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="39">
         <f>'0.表紙'!O29</f>
-        <v>44538</v>
-      </c>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
+        <v>44539</v>
+      </c>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
@@ -2278,1025 +2308,1033 @@
       <c r="AX3" s="10"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
     </row>
     <row r="5" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38">
+      <c r="B5" s="30"/>
+      <c r="C5" s="33">
         <v>44533</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="40" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="40"/>
-      <c r="AT5" s="40"/>
-      <c r="AU5" s="40"/>
-      <c r="AV5" s="40"/>
-      <c r="AW5" s="40"/>
-      <c r="AX5" s="40"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
     </row>
     <row r="6" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38">
+      <c r="B6" s="30"/>
+      <c r="C6" s="33">
         <v>44533</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
+      <c r="AX6" s="32"/>
     </row>
     <row r="7" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37">
+      <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38">
+      <c r="B7" s="30"/>
+      <c r="C7" s="33">
         <v>44536</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
+      <c r="AX7" s="32"/>
     </row>
     <row r="8" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="37">
+      <c r="A8" s="30">
         <v>4</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38">
+      <c r="B8" s="30"/>
+      <c r="C8" s="33">
         <v>44538</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="32"/>
     </row>
     <row r="9" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37">
+      <c r="A9" s="30">
         <v>5</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40"/>
-      <c r="AU9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="33">
+        <v>44539</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32"/>
     </row>
     <row r="10" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="37">
+      <c r="A10" s="30">
         <v>6</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-      <c r="AM10" s="40"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
-      <c r="AQ10" s="40"/>
-      <c r="AR10" s="40"/>
-      <c r="AS10" s="40"/>
-      <c r="AT10" s="40"/>
-      <c r="AU10" s="40"/>
-      <c r="AV10" s="40"/>
-      <c r="AW10" s="40"/>
-      <c r="AX10" s="40"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
     </row>
     <row r="11" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37">
+      <c r="A11" s="30">
         <v>7</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="40"/>
-      <c r="AP11" s="40"/>
-      <c r="AQ11" s="40"/>
-      <c r="AR11" s="40"/>
-      <c r="AS11" s="40"/>
-      <c r="AT11" s="40"/>
-      <c r="AU11" s="40"/>
-      <c r="AV11" s="40"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="40"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="32"/>
     </row>
     <row r="12" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37">
+      <c r="A12" s="30">
         <v>8</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40"/>
-      <c r="AL12" s="40"/>
-      <c r="AM12" s="40"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="40"/>
-      <c r="AS12" s="40"/>
-      <c r="AT12" s="40"/>
-      <c r="AU12" s="40"/>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
     </row>
     <row r="13" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37">
+      <c r="A13" s="30">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
-      <c r="AH13" s="40"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-      <c r="AM13" s="40"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
-      <c r="AQ13" s="40"/>
-      <c r="AR13" s="40"/>
-      <c r="AS13" s="40"/>
-      <c r="AT13" s="40"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
     </row>
     <row r="14" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="37">
+      <c r="A14" s="30">
         <v>10</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
-      <c r="AR14" s="40"/>
-      <c r="AS14" s="40"/>
-      <c r="AT14" s="40"/>
-      <c r="AU14" s="40"/>
-      <c r="AV14" s="40"/>
-      <c r="AW14" s="40"/>
-      <c r="AX14" s="40"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
     </row>
     <row r="15" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="37">
+      <c r="A15" s="30">
         <v>11</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-      <c r="AM15" s="40"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
-      <c r="AQ15" s="40"/>
-      <c r="AR15" s="40"/>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-      <c r="AV15" s="40"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
     </row>
     <row r="16" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="37">
+      <c r="A16" s="30">
         <v>12</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
-      <c r="AS16" s="40"/>
-      <c r="AT16" s="40"/>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="40"/>
-      <c r="AW16" s="40"/>
-      <c r="AX16" s="40"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
     </row>
     <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="37">
+      <c r="A17" s="30">
         <v>13</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
-      <c r="AQ17" s="40"/>
-      <c r="AR17" s="40"/>
-      <c r="AS17" s="40"/>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
+      <c r="AX17" s="32"/>
     </row>
     <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="37">
+      <c r="A18" s="30">
         <v>14</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
-      <c r="AQ18" s="40"/>
-      <c r="AR18" s="40"/>
-      <c r="AS18" s="40"/>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="40"/>
-      <c r="AX18" s="40"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
     </row>
     <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="37">
+      <c r="A19" s="30">
         <v>15</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-      <c r="AM19" s="40"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
-      <c r="AQ19" s="40"/>
-      <c r="AR19" s="40"/>
-      <c r="AS19" s="40"/>
-      <c r="AT19" s="40"/>
-      <c r="AU19" s="40"/>
-      <c r="AV19" s="40"/>
-      <c r="AW19" s="40"/>
-      <c r="AX19" s="40"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
+      <c r="AX19" s="32"/>
     </row>
     <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="37">
+      <c r="A20" s="30">
         <v>16</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
-      <c r="AQ20" s="40"/>
-      <c r="AR20" s="40"/>
-      <c r="AS20" s="40"/>
-      <c r="AT20" s="40"/>
-      <c r="AU20" s="40"/>
-      <c r="AV20" s="40"/>
-      <c r="AW20" s="40"/>
-      <c r="AX20" s="40"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
     </row>
     <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="37">
+      <c r="A21" s="30">
         <v>17</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
+      <c r="AX21" s="32"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -3309,13 +3347,13 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -3328,13 +3366,13 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -3347,13 +3385,13 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -3366,13 +3404,13 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -3385,13 +3423,13 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -3404,13 +3442,13 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -3423,13 +3461,13 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -3442,13 +3480,13 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -3461,13 +3499,13 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.4">
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -3480,13 +3518,13 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -3499,13 +3537,13 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -3518,13 +3556,13 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -3537,13 +3575,13 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -3556,13 +3594,13 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -3575,13 +3613,13 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -3594,13 +3632,13 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -3613,13 +3651,13 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.4">
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -3633,64 +3671,89 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AX5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AX6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AX7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AX8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AX9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AX10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
     <mergeCell ref="U20:AX20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:E21"/>
@@ -3707,89 +3770,64 @@
     <mergeCell ref="F19:J19"/>
     <mergeCell ref="K19:T19"/>
     <mergeCell ref="U19:AX19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AX16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AX17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AX14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AX15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AX12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AX13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AX10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AX11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AX8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AX9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AX6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AX7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AX4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AX5"/>
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,147 +3840,147 @@
   <dimension ref="A1:BA30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:AY12"/>
+      <selection activeCell="E11" sqref="E11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="49" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="53" t="str">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45" t="str">
         <f>'0.表紙'!O25</f>
         <v>メッセージ表</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="50" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="48" t="str">
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="47" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="48" t="s">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="47"/>
     </row>
     <row r="2" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="49" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="51">
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="48">
         <f>'0.表紙'!O33</f>
         <v>44532</v>
       </c>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="51">
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="46"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="48">
         <v>44532</v>
       </c>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
     </row>
     <row r="3" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -4002,720 +4040,724 @@
     <row r="4" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
     <row r="5" spans="1:53" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="43">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="47" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="52"/>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="43">
+      <c r="C6" s="50">
         <v>2</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="43">
+      <c r="C7" s="50">
         <v>3</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="45"/>
-      <c r="AX7" s="45"/>
-      <c r="AY7" s="45"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="43">
+      <c r="C8" s="50">
         <v>4</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="43">
+      <c r="C9" s="50">
         <v>5</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45" t="s">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="43">
+      <c r="C10" s="50">
         <v>6</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45" t="s">
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="43">
+      <c r="C11" s="50">
         <v>7</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="50"/>
+      <c r="E11" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45" t="s">
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="43">
+      <c r="C12" s="50">
         <v>8</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="50"/>
+      <c r="E12" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="43">
+      <c r="C13" s="50">
         <v>9</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="43">
+      <c r="C14" s="50">
         <v>10</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="43">
+      <c r="C15" s="50">
         <v>11</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
@@ -5546,11 +5588,42 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="N14:AY14"/>
+    <mergeCell ref="N15:AY15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:M13"/>
+    <mergeCell ref="N12:AY12"/>
+    <mergeCell ref="N13:AY13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="N10:AY10"/>
+    <mergeCell ref="N11:AY11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="N8:AY8"/>
+    <mergeCell ref="N9:AY9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="N6:AY6"/>
+    <mergeCell ref="N7:AY7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="N4:AY4"/>
+    <mergeCell ref="N5:AY5"/>
     <mergeCell ref="AV1:BA1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AE2"/>
@@ -5559,42 +5632,11 @@
     <mergeCell ref="AQ2:AU2"/>
     <mergeCell ref="AV2:BA2"/>
     <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="N4:AY4"/>
-    <mergeCell ref="N5:AY5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:M7"/>
-    <mergeCell ref="N6:AY6"/>
-    <mergeCell ref="N7:AY7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="N8:AY8"/>
-    <mergeCell ref="N9:AY9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="N10:AY10"/>
-    <mergeCell ref="N11:AY11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="N12:AY12"/>
-    <mergeCell ref="N13:AY13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="N14:AY14"/>
-    <mergeCell ref="N15:AY15"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
